--- a/ANegative.xlsx
+++ b/ANegative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C4D250A-E15E-4658-8B59-3909F9D4EA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81876EE-CCF8-4F3D-8F70-D864D77879B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0EE7F57F-FE70-4D7E-AF71-F42DB187C1B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Sl No.</t>
   </si>
@@ -66,13 +66,28 @@
   </si>
   <si>
     <t>2021 MBBS</t>
+  </si>
+  <si>
+    <t>2022 MBBS</t>
+  </si>
+  <si>
+    <t>SARA ELIZABETH JACOB</t>
+  </si>
+  <si>
+    <t>2023 MBBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGHANA ELSA SANTHOSH </t>
+  </si>
+  <si>
+    <t>THEJAL K J</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +104,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -96,13 +112,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -147,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -166,6 +206,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +556,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,90 +621,119 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8300887511</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8075937759</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ANegative.xlsx
+++ b/ANegative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81876EE-CCF8-4F3D-8F70-D864D77879B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BDD9CD-AE7E-44B4-884F-BD4DCD621079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0EE7F57F-FE70-4D7E-AF71-F42DB187C1B5}"/>
   </bookViews>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -211,9 +211,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -553,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67217EA9-4FEF-4257-A435-914B735CB241}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,79 +655,18 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>8086024949</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
